--- a/Documents/Jegyzetek/Figures/System_design/GATTtable.xlsx
+++ b/Documents/Jegyzetek/Figures/System_design/GATTtable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="417">
   <si>
     <t>0x01</t>
   </si>
@@ -1233,6 +1233,48 @@
   </si>
   <si>
     <t>Disconnect request</t>
+  </si>
+  <si>
+    <t>12:21:00:00:00:00:00:00:00:00:B0:00:40:51:04:01:AA:00:F0</t>
+  </si>
+  <si>
+    <t>IR Temperature Data</t>
+  </si>
+  <si>
+    <t>0A:24:00:00:00:00:00:00:00:00:B0:00:40:51:04:02:AA:00:F0</t>
+  </si>
+  <si>
+    <t>IR Temperature Config</t>
+  </si>
+  <si>
+    <t>0A:26:00:00:00:00:00:00:00:00:B0:00:40:51:04:03:AA:00:F0</t>
+  </si>
+  <si>
+    <t>IR Temperature Period</t>
+  </si>
+  <si>
+    <t>1C:63:00:00:00:00:00:00:00:00:B0:00:40:51:04:C1:FF:00:F0</t>
+  </si>
+  <si>
+    <t>OAT Image Identify</t>
+  </si>
+  <si>
+    <t>OAT Service</t>
+  </si>
+  <si>
+    <t>F000FFC0-0451-4000-B000-000000000000</t>
+  </si>
+  <si>
+    <t>1C:67:00:00:00:00:00:00:00:00:B0:00:40:51:04:C2:FF:00:F0</t>
+  </si>
+  <si>
+    <t>OAT Image Block</t>
+  </si>
+  <si>
+    <t>F000AA00-0451-4000-B000-000000000000</t>
+  </si>
+  <si>
+    <t>IR Temperature Service</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1598,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,8 +1959,12 @@
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1927,8 +1973,12 @@
       <c r="B36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1957,8 +2007,12 @@
       <c r="B39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1977,8 +2031,12 @@
       <c r="B41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -2674,8 +2732,12 @@
       <c r="B100" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -2684,8 +2746,12 @@
       <c r="B101" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -2721,8 +2787,12 @@
       <c r="B105" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -2738,6 +2808,8 @@
       <c r="B107" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -2746,6 +2818,8 @@
       <c r="B108" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -2754,11 +2828,15 @@
       <c r="B109" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>181</v>
       </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -2767,6 +2845,8 @@
       <c r="B111" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -2775,6 +2855,8 @@
       <c r="B112" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">

--- a/Documents/Jegyzetek/Figures/System_design/GATTtable.xlsx
+++ b/Documents/Jegyzetek/Figures/System_design/GATTtable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="424">
   <si>
     <t>0x01</t>
   </si>
@@ -1275,6 +1275,27 @@
   </si>
   <si>
     <t>IR Temperature Service</t>
+  </si>
+  <si>
+    <t>01 to start</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>TempLSB:TempMSB:HumLSB:HumMSB</t>
+  </si>
+  <si>
+    <t>100 for 1000ms</t>
+  </si>
+  <si>
+    <t>TempLSB:TempMSB:PressureLSB:PressureMSB</t>
+  </si>
+  <si>
+    <t>LSB:MSB</t>
   </si>
 </sst>
 </file>
@@ -1594,11 +1615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D256"/>
+  <dimension ref="A1:G256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,9 +1627,11 @@
     <col min="2" max="2" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>341</v>
       </c>
@@ -1621,8 +1644,14 @@
       <c r="D1" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +1661,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1642,7 +1671,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1652,7 +1681,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1662,7 +1691,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1672,7 +1701,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1682,7 +1711,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1692,7 +1721,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1702,7 +1731,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1712,7 +1741,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1722,7 +1751,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1732,7 +1761,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1742,7 +1771,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1752,7 +1781,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1762,7 +1791,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1932,7 +1961,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -1942,7 +1971,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1952,7 +1981,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -1966,7 +1995,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -1980,7 +2009,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -1990,7 +2019,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -2000,7 +2029,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2014,7 +2043,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -2024,7 +2053,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -2038,7 +2067,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -2048,7 +2077,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -2062,7 +2091,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -2076,7 +2105,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -2085,8 +2114,11 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -2096,7 +2128,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -2110,7 +2142,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -2119,8 +2151,11 @@
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -2134,7 +2169,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -2143,8 +2178,11 @@
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -2158,7 +2196,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -2172,7 +2210,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -2181,8 +2219,11 @@
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -2192,7 +2233,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -2206,7 +2247,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -2215,8 +2256,11 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>95</v>
       </c>
@@ -2230,7 +2274,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -2239,8 +2283,11 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>98</v>
       </c>
@@ -2254,7 +2301,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>100</v>
       </c>
@@ -2268,7 +2315,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -2278,7 +2325,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -2288,7 +2335,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -2302,7 +2349,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -2312,7 +2359,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -2326,7 +2373,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -2336,7 +2383,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>111</v>
       </c>
@@ -2350,7 +2397,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -2364,7 +2411,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -2373,8 +2420,11 @@
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -2384,7 +2434,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>117</v>
       </c>
@@ -2398,7 +2448,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -2407,8 +2457,11 @@
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -2422,7 +2475,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -2431,8 +2484,11 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>123</v>
       </c>
@@ -2446,7 +2502,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>125</v>
       </c>
@@ -2460,14 +2516,14 @@
         <v>378</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>127</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>128</v>
       </c>
@@ -2477,7 +2533,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>129</v>
       </c>
@@ -2487,7 +2543,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>131</v>
       </c>
